--- a/addons-dev/dgf_asset_nfs/report/import/res.currency.xlsx
+++ b/addons-dev/dgf_asset_nfs/report/import/res.currency.xlsx
@@ -1,161 +1,247 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\coding\odoo\project\dgf\liquidation-dev\addons-dev\dgf_asset_nfs\report\import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
-  <si>
-    <t>Валюта</t>
-  </si>
-  <si>
-    <t>Цифровий код</t>
-  </si>
-  <si>
-    <t>Найменування</t>
-  </si>
-  <si>
-    <t>Символ</t>
-  </si>
-  <si>
-    <t>Одиниця валюти</t>
-  </si>
-  <si>
-    <t>Активно</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>r030</t>
+  </si>
+  <si>
+    <t>c_name</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>currency_unit_label</t>
+  </si>
+  <si>
+    <t>base.CHF</t>
+  </si>
+  <si>
+    <t>base.DKK</t>
+  </si>
+  <si>
+    <t>base.EUR</t>
+  </si>
+  <si>
+    <t>base.GBP</t>
+  </si>
+  <si>
+    <t>base.ISK</t>
+  </si>
+  <si>
+    <t>base.PLN</t>
+  </si>
+  <si>
+    <t>base.PLZ</t>
+  </si>
+  <si>
+    <t>base.RUB</t>
+  </si>
+  <si>
+    <t>base.UAH</t>
+  </si>
+  <si>
+    <t>base.USD</t>
+  </si>
+  <si>
+    <t>XAG</t>
+  </si>
+  <si>
+    <t>срібло</t>
+  </si>
+  <si>
+    <t>унції</t>
+  </si>
+  <si>
+    <t>XAU</t>
+  </si>
+  <si>
+    <t>золото</t>
+  </si>
+  <si>
+    <t>XPD</t>
+  </si>
+  <si>
+    <t>паладій</t>
+  </si>
+  <si>
+    <t>XPT</t>
+  </si>
+  <si>
+    <t>платина</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>данська крона</t>
+  </si>
+  <si>
+    <t>долар США</t>
+  </si>
+  <si>
+    <t>гривня</t>
+  </si>
+  <si>
+    <t>російський рубль</t>
+  </si>
+  <si>
+    <t>швейцарський франк</t>
+  </si>
+  <si>
+    <t>фунт стерлінгів</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>євро</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>ісландська крона</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>злотий</t>
   </si>
   <si>
     <t>CHF</t>
   </si>
   <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>zł</t>
+  </si>
+  <si>
+    <t>руб</t>
+  </si>
+  <si>
+    <t>₴</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
     <t>Franc</t>
   </si>
   <si>
-    <t>DKK</t>
-  </si>
-  <si>
-    <t>kr</t>
-  </si>
-  <si>
     <t>Krone</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
     <t>Euros</t>
   </si>
   <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>£</t>
-  </si>
-  <si>
     <t>Sterling</t>
   </si>
   <si>
-    <t>ISK</t>
-  </si>
-  <si>
     <t>Krona</t>
   </si>
   <si>
-    <t>PLN</t>
-  </si>
-  <si>
-    <t>zł</t>
-  </si>
-  <si>
     <t>Zloty</t>
   </si>
   <si>
-    <t>PLZ</t>
-  </si>
-  <si>
-    <t>RUB</t>
-  </si>
-  <si>
-    <t>руб</t>
-  </si>
-  <si>
     <t>Ruble</t>
   </si>
   <si>
-    <t>UAH</t>
-  </si>
-  <si>
-    <t>₴</t>
-  </si>
-  <si>
     <t>Hryvnia</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>Dollars</t>
   </si>
   <si>
-    <t>XAG</t>
-  </si>
-  <si>
-    <t>961</t>
-  </si>
-  <si>
-    <t>срібло</t>
-  </si>
-  <si>
-    <t>унції</t>
-  </si>
-  <si>
-    <t>XAU</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>золото</t>
-  </si>
-  <si>
-    <t>XPD</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>паладій</t>
-  </si>
-  <si>
-    <t>XPT</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>платина</t>
+    <t>res_currency_XAG</t>
+  </si>
+  <si>
+    <t>res_currency_XAU</t>
+  </si>
+  <si>
+    <t>res_currency_XPD</t>
+  </si>
+  <si>
+    <t>res_currency_XPT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,19 +278,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G15"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="id" dataDxfId="6"/>
+    <tableColumn id="2" name="name" dataDxfId="5"/>
+    <tableColumn id="3" name="r030" dataDxfId="4"/>
+    <tableColumn id="4" name="c_name" dataDxfId="3"/>
+    <tableColumn id="5" name="symbol" dataDxfId="2"/>
+    <tableColumn id="8" name="currency_unit_label" dataDxfId="1"/>
+    <tableColumn id="6" name="active" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -250,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +440,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +475,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,24 +651,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="30.7109375" customWidth="1"/>
+    <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -518,250 +685,336 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>980</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4">
+        <v>840</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>961</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <v>959</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>964</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>962</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2" t="b">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>